--- a/docs/CodeSystem-relationship-to-proband.xlsx
+++ b/docs/CodeSystem-relationship-to-proband.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-relationship-to-proband.xlsx
+++ b/docs/CodeSystem-relationship-to-proband.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-relationship-to-proband.xlsx
+++ b/docs/CodeSystem-relationship-to-proband.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
